--- a/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-software.xlsx
+++ b/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-software.xlsx
@@ -2270,7 +2270,7 @@
     <t>,,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint Agent Smith)</t>
@@ -2282,7 +2282,7 @@
     <t>,,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,,(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: blackberry_mobile_malware_apt_esp)</t>
+    <t>,,(Citation: Lookout-EnterpriseApps),(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter)</t>
   </si>
   <si>
     <t>,,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2297,7 +2297,7 @@
     <t>,,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,,(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Cyble_Anubis_May2021),(Citation: Zimperium z9)</t>
+    <t>,,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Cyble_Anubis_May2021),(Citation: Zimperium z9)</t>
   </si>
   <si>
     <t>,,(Citation: Securelist Asacub)</t>
@@ -2306,7 +2306,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819)</t>
+    <t>,,(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2315,7 +2315,7 @@
     <t>,,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,,(Citation: SecureList BusyGasper)</t>
@@ -2327,10 +2327,10 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
-  </si>
-  <si>
-    <t>,,(Citation: cyble_chameleon_0423),(Citation: ThreatFabric_Chameleon_Dec2023)</t>
+    <t>,,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
+  </si>
+  <si>
+    <t>,,(Citation: ThreatFabric_Chameleon_Dec2023),(Citation: cyble_chameleon_0423)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint-Charger)</t>
@@ -2396,16 +2396,16 @@
     <t>,,(Citation: Promon FjordPhantom Oct2024)</t>
   </si>
   <si>
-    <t>,,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,,(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy)</t>
   </si>
   <si>
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: proofpoint_flubot_0421),(Citation: Europol FluBot Jun2022),(Citation: SahinSRLabs_FluBot_Dec2021),(Citation: bitdefender_flubot_0524)</t>
-  </si>
-  <si>
-    <t>,,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
+    <t>,,(Citation: SahinSRLabs_FluBot_Dec2021),(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022)</t>
+  </si>
+  <si>
+    <t>,,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout FrozenCell)</t>
@@ -2453,10 +2453,10 @@
     <t>,,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
-  </si>
-  <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Threatfabric LightSpy 2024),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: FirshSecureList LightSpy 2020),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: Threatfabric LightSpy 2023),(Citation: MelikovBlackBerry LightSpy 2024)</t>
+    <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+  </si>
+  <si>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2023),(Citation: Threatfabric LightSpy 2024),(Citation: FirshSecureList LightSpy 2020),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: LinkedIn Dmitry LightSpy 2025)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2483,10 +2483,10 @@
     <t>,,(Citation: Lookout-PegasusAndroid)</t>
   </si>
   <si>
-    <t>,,(Citation: Lookout-Pegasus),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022),(Citation: CitizenLab Great iPwn)</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),,(Citation: fb_arid_viper)</t>
+    <t>,,(Citation: CitizenLab Great iPwn),(Citation: Lookout-Pegasus),(Citation: Scott-Railton_TheCitizenLab Pegasus Apr2022)</t>
+  </si>
+  <si>
+    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),,(Citation: fb_arid_viper)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-RCSAndroid)</t>
@@ -2510,7 +2510,7 @@
     <t>,,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2525,7 +2525,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),,(Citation: Cyware APT-C-23 2020),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: SentinelLabs AridViper 2023),(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware)</t>
+    <t>(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),,(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: SentinelLabs AridViper 2023),(Citation: Cyware APT-C-23 2020),(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2549,7 +2549,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019)</t>
+    <t>,,(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>
@@ -2564,7 +2564,7 @@
     <t>,,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout ViperRAT)</t>

--- a/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-software.xlsx
+++ b/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-software.xlsx
@@ -2264,13 +2264,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
+    <t>,,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
   </si>
   <si>
     <t>,,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,,(Citation: CheckPoint Agent Smith)</t>
@@ -2282,7 +2282,7 @@
     <t>,,(Citation: HackerNews-Allwinner)</t>
   </si>
   <si>
-    <t>,,(Citation: Lookout-EnterpriseApps),(Citation: blackberry_mobile_malware_apt_esp),(Citation: forcepoint_bitter)</t>
+    <t>,,(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter),(Citation: blackberry_mobile_malware_apt_esp)</t>
   </si>
   <si>
     <t>,,(Citation: WeLiveSecurity AdDisplayAshas)</t>
@@ -2297,7 +2297,7 @@
     <t>,,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Cyble_Anubis_May2021),(Citation: Zimperium z9)</t>
+    <t>,,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cyble_Anubis_May2021),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,,(Citation: Securelist Asacub)</t>
@@ -2306,7 +2306,7 @@
     <t>,,(Citation: lookout_bouldspy_0423)</t>
   </si>
   <si>
-    <t>,,(Citation: securelist_brata_0819),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421)</t>
+    <t>,,(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 23Oct2023)</t>
@@ -2315,7 +2315,7 @@
     <t>,,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,,(Citation: SecureList BusyGasper)</t>
@@ -2327,7 +2327,7 @@
     <t>,,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,,(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus)</t>
   </si>
   <si>
     <t>,,(Citation: ThreatFabric_Chameleon_Dec2023),(Citation: cyble_chameleon_0423)</t>
@@ -2396,13 +2396,13 @@
     <t>,,(Citation: Promon FjordPhantom Oct2024)</t>
   </si>
   <si>
-    <t>,,(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy)</t>
+    <t>,,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,,(Citation: checkpoint_flixonline_0421)</t>
   </si>
   <si>
-    <t>,,(Citation: SahinSRLabs_FluBot_Dec2021),(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: Europol FluBot Jun2022)</t>
+    <t>,,(Citation: bitdefender_flubot_0524),(Citation: SahinSRLabs_FluBot_Dec2021),(Citation: proofpoint_flubot_0421),(Citation: Europol FluBot Jun2022)</t>
   </si>
   <si>
     <t>,,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
@@ -2417,7 +2417,7 @@
     <t>,,(Citation: ThreatFabric Ginp)</t>
   </si>
   <si>
-    <t>,,(Citation: ZimperiumOrtegaPratapagiri_GodFather_Jun2025),(Citation: MerkleScience_Godfather_April2023)</t>
+    <t>,,(Citation: MerkleScience_Godfather_April2023),(Citation: ZimperiumOrtegaPratapagiri_GodFather_Jun2025)</t>
   </si>
   <si>
     <t>,,(Citation: Symantec GoldenCup)</t>
@@ -2456,7 +2456,7 @@
     <t>,,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
-    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2023),(Citation: Threatfabric LightSpy 2024),(Citation: FirshSecureList LightSpy 2020),(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: LinkedIn Dmitry LightSpy 2025)</t>
+    <t>(Citation: MelikovBlackBerry LightSpy 2024),,(Citation: Shoshin_Kaspersky LightSpy 2020),(Citation: LinkedIn Dmitry LightSpy 2025),(Citation: MelikovBlackBerry LightSpy 2024),(Citation: Threatfabric LightSpy 2023),(Citation: Threatfabric LightSpy 2024),(Citation: FirshSecureList LightSpy 2020)</t>
   </si>
   <si>
     <t>,,(Citation: Bitdefender Mandrake)</t>
@@ -2510,7 +2510,7 @@
     <t>,,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2525,7 +2525,7 @@
     <t>,,(Citation: Kaspersky-Skygofree)</t>
   </si>
   <si>
-    <t>(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),,(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: SentinelLabs AridViper 2023),(Citation: Cyware APT-C-23 2020),(Citation: threatpost AndroidSpyware 2020),(Citation: sophos_android_apt_spyware)</t>
+    <t>(Citation: welivesecurity_apt-c-23),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),,(Citation: welivesecurity_apt-c-23),(Citation: Cyware APT-C-23 2020),(Citation: SentinelLabs AridViper 2023),(Citation: sophos_android_apt_spyware),(Citation: threatpost AndroidSpyware 2020),(Citation: checkpoint_hamas_android_malware)</t>
   </si>
   <si>
     <t>,,(Citation: PaloAlto-SpyDealer)</t>
@@ -2549,7 +2549,7 @@
     <t>,,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,,(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 21Jun2023)</t>
@@ -2564,7 +2564,7 @@
     <t>,,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,,(Citation: Lookout ViperRAT)</t>
@@ -2579,7 +2579,7 @@
     <t>(Citation: CrowdStrike-Android),,(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
+    <t>,,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
   </si>
   <si>
     <t>,,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -13408,16 +13408,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -13440,7 +13432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -13448,35 +13440,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13779,46 +13753,46 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13835,7 +13809,7 @@
       <c r="D2" t="s">
         <v>380</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>502</v>
       </c>
       <c r="F2" t="s">
@@ -13873,7 +13847,7 @@
       <c r="D3" t="s">
         <v>381</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>503</v>
       </c>
       <c r="F3" t="s">
@@ -13911,7 +13885,7 @@
       <c r="D4" t="s">
         <v>382</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>504</v>
       </c>
       <c r="F4" t="s">
@@ -13946,7 +13920,7 @@
       <c r="D5" t="s">
         <v>383</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>505</v>
       </c>
       <c r="F5" t="s">
@@ -13987,7 +13961,7 @@
       <c r="D6" t="s">
         <v>384</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>506</v>
       </c>
       <c r="F6" t="s">
@@ -14028,7 +14002,7 @@
       <c r="D7" t="s">
         <v>385</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>507</v>
       </c>
       <c r="F7" t="s">
@@ -14063,7 +14037,7 @@
       <c r="D8" t="s">
         <v>386</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>508</v>
       </c>
       <c r="F8" t="s">
@@ -14101,7 +14075,7 @@
       <c r="D9" t="s">
         <v>387</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F9" t="s">
@@ -14139,7 +14113,7 @@
       <c r="D10" t="s">
         <v>388</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>510</v>
       </c>
       <c r="F10" t="s">
@@ -14177,7 +14151,7 @@
       <c r="D11" t="s">
         <v>389</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>511</v>
       </c>
       <c r="F11" t="s">
@@ -14215,7 +14189,7 @@
       <c r="D12" t="s">
         <v>390</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>512</v>
       </c>
       <c r="F12" t="s">
@@ -14253,7 +14227,7 @@
       <c r="D13" t="s">
         <v>391</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>513</v>
       </c>
       <c r="F13" t="s">
@@ -14294,7 +14268,7 @@
       <c r="D14" t="s">
         <v>392</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>514</v>
       </c>
       <c r="F14" t="s">
@@ -14335,7 +14309,7 @@
       <c r="D15" t="s">
         <v>393</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>515</v>
       </c>
       <c r="F15" t="s">
@@ -14376,7 +14350,7 @@
       <c r="D16" t="s">
         <v>394</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>516</v>
       </c>
       <c r="F16" t="s">
@@ -14417,7 +14391,7 @@
       <c r="D17" t="s">
         <v>395</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>517</v>
       </c>
       <c r="F17" t="s">
@@ -14455,7 +14429,7 @@
       <c r="D18" t="s">
         <v>396</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>518</v>
       </c>
       <c r="F18" t="s">
@@ -14490,7 +14464,7 @@
       <c r="D19" t="s">
         <v>397</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>519</v>
       </c>
       <c r="F19" t="s">
@@ -14534,7 +14508,7 @@
       <c r="D20" t="s">
         <v>398</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>520</v>
       </c>
       <c r="F20" t="s">
@@ -14572,7 +14546,7 @@
       <c r="D21" t="s">
         <v>399</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>521</v>
       </c>
       <c r="F21" t="s">
@@ -14610,7 +14584,7 @@
       <c r="D22" t="s">
         <v>400</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>522</v>
       </c>
       <c r="F22" t="s">
@@ -14648,7 +14622,7 @@
       <c r="D23" t="s">
         <v>401</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F23" t="s">
@@ -14689,7 +14663,7 @@
       <c r="D24" t="s">
         <v>402</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F24" t="s">
@@ -14730,7 +14704,7 @@
       <c r="D25" t="s">
         <v>403</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F25" t="s">
@@ -14768,7 +14742,7 @@
       <c r="D26" t="s">
         <v>404</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F26" t="s">
@@ -14809,7 +14783,7 @@
       <c r="D27" t="s">
         <v>405</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>527</v>
       </c>
       <c r="F27" t="s">
@@ -14844,7 +14818,7 @@
       <c r="D28" t="s">
         <v>406</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>528</v>
       </c>
       <c r="F28" t="s">
@@ -14885,7 +14859,7 @@
       <c r="D29" t="s">
         <v>407</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>529</v>
       </c>
       <c r="F29" t="s">
@@ -14926,7 +14900,7 @@
       <c r="D30" t="s">
         <v>408</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F30" t="s">
@@ -14967,7 +14941,7 @@
       <c r="D31" t="s">
         <v>409</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>531</v>
       </c>
       <c r="F31" t="s">
@@ -15008,7 +14982,7 @@
       <c r="D32" t="s">
         <v>410</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>532</v>
       </c>
       <c r="F32" t="s">
@@ -15046,7 +15020,7 @@
       <c r="D33" t="s">
         <v>411</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>533</v>
       </c>
       <c r="F33" t="s">
@@ -15084,7 +15058,7 @@
       <c r="D34" t="s">
         <v>412</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>534</v>
       </c>
       <c r="F34" t="s">
@@ -15122,7 +15096,7 @@
       <c r="D35" t="s">
         <v>413</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>535</v>
       </c>
       <c r="F35" t="s">
@@ -15157,7 +15131,7 @@
       <c r="D36" t="s">
         <v>414</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>536</v>
       </c>
       <c r="F36" t="s">
@@ -15195,7 +15169,7 @@
       <c r="D37" t="s">
         <v>415</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>537</v>
       </c>
       <c r="F37" t="s">
@@ -15233,7 +15207,7 @@
       <c r="D38" t="s">
         <v>416</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>538</v>
       </c>
       <c r="F38" t="s">
@@ -15268,7 +15242,7 @@
       <c r="D39" t="s">
         <v>417</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>539</v>
       </c>
       <c r="F39" t="s">
@@ -15306,7 +15280,7 @@
       <c r="D40" t="s">
         <v>418</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>540</v>
       </c>
       <c r="F40" t="s">
@@ -15347,7 +15321,7 @@
       <c r="D41" t="s">
         <v>419</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>541</v>
       </c>
       <c r="F41" t="s">
@@ -15385,7 +15359,7 @@
       <c r="D42" t="s">
         <v>420</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>542</v>
       </c>
       <c r="F42" t="s">
@@ -15423,7 +15397,7 @@
       <c r="D43" t="s">
         <v>421</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>543</v>
       </c>
       <c r="F43" t="s">
@@ -15464,7 +15438,7 @@
       <c r="D44" t="s">
         <v>422</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>544</v>
       </c>
       <c r="F44" t="s">
@@ -15505,7 +15479,7 @@
       <c r="D45" t="s">
         <v>423</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>545</v>
       </c>
       <c r="F45" t="s">
@@ -15546,7 +15520,7 @@
       <c r="D46" t="s">
         <v>424</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>546</v>
       </c>
       <c r="F46" t="s">
@@ -15587,7 +15561,7 @@
       <c r="D47" t="s">
         <v>425</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>547</v>
       </c>
       <c r="F47" t="s">
@@ -15628,7 +15602,7 @@
       <c r="D48" t="s">
         <v>426</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>548</v>
       </c>
       <c r="F48" t="s">
@@ -15669,7 +15643,7 @@
       <c r="D49" t="s">
         <v>427</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>549</v>
       </c>
       <c r="F49" t="s">
@@ -15707,7 +15681,7 @@
       <c r="D50" t="s">
         <v>428</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>550</v>
       </c>
       <c r="F50" t="s">
@@ -15745,7 +15719,7 @@
       <c r="D51" t="s">
         <v>429</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>551</v>
       </c>
       <c r="F51" t="s">
@@ -15786,7 +15760,7 @@
       <c r="D52" t="s">
         <v>430</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>552</v>
       </c>
       <c r="F52" t="s">
@@ -15824,7 +15798,7 @@
       <c r="D53" t="s">
         <v>431</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>553</v>
       </c>
       <c r="F53" t="s">
@@ -15862,7 +15836,7 @@
       <c r="D54" t="s">
         <v>432</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>554</v>
       </c>
       <c r="F54" t="s">
@@ -15903,7 +15877,7 @@
       <c r="D55" t="s">
         <v>433</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>555</v>
       </c>
       <c r="F55" t="s">
@@ -15944,7 +15918,7 @@
       <c r="D56" t="s">
         <v>434</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>556</v>
       </c>
       <c r="F56" t="s">
@@ -15982,7 +15956,7 @@
       <c r="D57" t="s">
         <v>435</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="1" t="s">
         <v>557</v>
       </c>
       <c r="F57" t="s">
@@ -16017,7 +15991,7 @@
       <c r="D58" t="s">
         <v>436</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>558</v>
       </c>
       <c r="F58" t="s">
@@ -16055,7 +16029,7 @@
       <c r="D59" t="s">
         <v>437</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>559</v>
       </c>
       <c r="F59" t="s">
@@ -16096,7 +16070,7 @@
       <c r="D60" t="s">
         <v>438</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>560</v>
       </c>
       <c r="F60" t="s">
@@ -16134,7 +16108,7 @@
       <c r="D61" t="s">
         <v>439</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>561</v>
       </c>
       <c r="F61" t="s">
@@ -16172,7 +16146,7 @@
       <c r="D62" t="s">
         <v>440</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>562</v>
       </c>
       <c r="F62" t="s">
@@ -16213,7 +16187,7 @@
       <c r="D63" t="s">
         <v>441</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>563</v>
       </c>
       <c r="F63" t="s">
@@ -16251,7 +16225,7 @@
       <c r="D64" t="s">
         <v>442</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="1" t="s">
         <v>564</v>
       </c>
       <c r="F64" t="s">
@@ -16286,7 +16260,7 @@
       <c r="D65" t="s">
         <v>443</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>565</v>
       </c>
       <c r="F65" t="s">
@@ -16321,7 +16295,7 @@
       <c r="D66" t="s">
         <v>444</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="1" t="s">
         <v>566</v>
       </c>
       <c r="F66" t="s">
@@ -16359,7 +16333,7 @@
       <c r="D67" t="s">
         <v>445</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F67" t="s">
@@ -16394,7 +16368,7 @@
       <c r="D68" t="s">
         <v>446</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="1" t="s">
         <v>568</v>
       </c>
       <c r="F68" t="s">
@@ -16429,7 +16403,7 @@
       <c r="D69" t="s">
         <v>447</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>569</v>
       </c>
       <c r="F69" t="s">
@@ -16470,7 +16444,7 @@
       <c r="D70" t="s">
         <v>448</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>570</v>
       </c>
       <c r="F70" t="s">
@@ -16511,7 +16485,7 @@
       <c r="D71" t="s">
         <v>449</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>571</v>
       </c>
       <c r="F71" t="s">
@@ -16546,7 +16520,7 @@
       <c r="D72" t="s">
         <v>450</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>572</v>
       </c>
       <c r="F72" t="s">
@@ -16587,7 +16561,7 @@
       <c r="D73" t="s">
         <v>451</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>573</v>
       </c>
       <c r="F73" t="s">
@@ -16622,7 +16596,7 @@
       <c r="D74" t="s">
         <v>452</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="1" t="s">
         <v>574</v>
       </c>
       <c r="F74" t="s">
@@ -16657,7 +16631,7 @@
       <c r="D75" t="s">
         <v>453</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="1" t="s">
         <v>575</v>
       </c>
       <c r="F75" t="s">
@@ -16692,7 +16666,7 @@
       <c r="D76" t="s">
         <v>454</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>576</v>
       </c>
       <c r="F76" t="s">
@@ -16727,7 +16701,7 @@
       <c r="D77" t="s">
         <v>455</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="1" t="s">
         <v>577</v>
       </c>
       <c r="F77" t="s">
@@ -16765,7 +16739,7 @@
       <c r="D78" t="s">
         <v>456</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F78" t="s">
@@ -16806,7 +16780,7 @@
       <c r="D79" t="s">
         <v>457</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>579</v>
       </c>
       <c r="F79" t="s">
@@ -16844,7 +16818,7 @@
       <c r="D80" t="s">
         <v>458</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1" t="s">
         <v>580</v>
       </c>
       <c r="F80" t="s">
@@ -16885,7 +16859,7 @@
       <c r="D81" t="s">
         <v>459</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="1" t="s">
         <v>581</v>
       </c>
       <c r="F81" t="s">
@@ -16923,7 +16897,7 @@
       <c r="D82" t="s">
         <v>460</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="1" t="s">
         <v>582</v>
       </c>
       <c r="F82" t="s">
@@ -16964,7 +16938,7 @@
       <c r="D83" t="s">
         <v>461</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>583</v>
       </c>
       <c r="F83" t="s">
@@ -17002,7 +16976,7 @@
       <c r="D84" t="s">
         <v>462</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="1" t="s">
         <v>584</v>
       </c>
       <c r="F84" t="s">
@@ -17040,7 +17014,7 @@
       <c r="D85" t="s">
         <v>463</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="1" t="s">
         <v>585</v>
       </c>
       <c r="F85" t="s">
@@ -17078,7 +17052,7 @@
       <c r="D86" t="s">
         <v>464</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="1" t="s">
         <v>586</v>
       </c>
       <c r="F86" t="s">
@@ -17116,7 +17090,7 @@
       <c r="D87" t="s">
         <v>465</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="1" t="s">
         <v>587</v>
       </c>
       <c r="F87" t="s">
@@ -17151,7 +17125,7 @@
       <c r="D88" t="s">
         <v>466</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="1" t="s">
         <v>588</v>
       </c>
       <c r="F88" t="s">
@@ -17189,7 +17163,7 @@
       <c r="D89" t="s">
         <v>467</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="1" t="s">
         <v>589</v>
       </c>
       <c r="F89" t="s">
@@ -17227,7 +17201,7 @@
       <c r="D90" t="s">
         <v>468</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F90" t="s">
@@ -17262,7 +17236,7 @@
       <c r="D91" t="s">
         <v>469</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="1" t="s">
         <v>591</v>
       </c>
       <c r="F91" t="s">
@@ -17300,7 +17274,7 @@
       <c r="D92" t="s">
         <v>470</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="1" t="s">
         <v>592</v>
       </c>
       <c r="F92" t="s">
@@ -17338,7 +17312,7 @@
       <c r="D93" t="s">
         <v>471</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F93" t="s">
@@ -17376,7 +17350,7 @@
       <c r="D94" t="s">
         <v>472</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="1" t="s">
         <v>594</v>
       </c>
       <c r="F94" t="s">
@@ -17417,7 +17391,7 @@
       <c r="D95" t="s">
         <v>473</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="1" t="s">
         <v>595</v>
       </c>
       <c r="F95" t="s">
@@ -17455,7 +17429,7 @@
       <c r="D96" t="s">
         <v>474</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="1" t="s">
         <v>596</v>
       </c>
       <c r="F96" t="s">
@@ -17493,7 +17467,7 @@
       <c r="D97" t="s">
         <v>475</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="1" t="s">
         <v>597</v>
       </c>
       <c r="F97" t="s">
@@ -17531,7 +17505,7 @@
       <c r="D98" t="s">
         <v>476</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="1" t="s">
         <v>598</v>
       </c>
       <c r="F98" t="s">
@@ -17569,7 +17543,7 @@
       <c r="D99" t="s">
         <v>477</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="1" t="s">
         <v>599</v>
       </c>
       <c r="F99" t="s">
@@ -17607,7 +17581,7 @@
       <c r="D100" t="s">
         <v>478</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="1" t="s">
         <v>600</v>
       </c>
       <c r="F100" t="s">
@@ -17645,7 +17619,7 @@
       <c r="D101" t="s">
         <v>479</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="1" t="s">
         <v>601</v>
       </c>
       <c r="F101" t="s">
@@ -17683,7 +17657,7 @@
       <c r="D102" t="s">
         <v>480</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="1" t="s">
         <v>602</v>
       </c>
       <c r="F102" t="s">
@@ -17721,7 +17695,7 @@
       <c r="D103" t="s">
         <v>481</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="1" t="s">
         <v>603</v>
       </c>
       <c r="F103" t="s">
@@ -17759,7 +17733,7 @@
       <c r="D104" t="s">
         <v>482</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="1" t="s">
         <v>604</v>
       </c>
       <c r="F104" t="s">
@@ -17797,7 +17771,7 @@
       <c r="D105" t="s">
         <v>483</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="1" t="s">
         <v>605</v>
       </c>
       <c r="F105" t="s">
@@ -17835,7 +17809,7 @@
       <c r="D106" t="s">
         <v>484</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="1" t="s">
         <v>606</v>
       </c>
       <c r="F106" t="s">
@@ -17876,7 +17850,7 @@
       <c r="D107" t="s">
         <v>485</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="1" t="s">
         <v>607</v>
       </c>
       <c r="F107" t="s">
@@ -17911,7 +17885,7 @@
       <c r="D108" t="s">
         <v>486</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="1" t="s">
         <v>608</v>
       </c>
       <c r="F108" t="s">
@@ -17946,7 +17920,7 @@
       <c r="D109" t="s">
         <v>487</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="1" t="s">
         <v>609</v>
       </c>
       <c r="F109" t="s">
@@ -17981,7 +17955,7 @@
       <c r="D110" t="s">
         <v>488</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="1" t="s">
         <v>610</v>
       </c>
       <c r="F110" t="s">
@@ -18019,7 +17993,7 @@
       <c r="D111" t="s">
         <v>489</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="1" t="s">
         <v>611</v>
       </c>
       <c r="F111" t="s">
@@ -18060,7 +18034,7 @@
       <c r="D112" t="s">
         <v>490</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="1" t="s">
         <v>612</v>
       </c>
       <c r="F112" t="s">
@@ -18098,7 +18072,7 @@
       <c r="D113" t="s">
         <v>491</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="1" t="s">
         <v>613</v>
       </c>
       <c r="F113" t="s">
@@ -18133,7 +18107,7 @@
       <c r="D114" t="s">
         <v>492</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="1" t="s">
         <v>614</v>
       </c>
       <c r="F114" t="s">
@@ -18171,7 +18145,7 @@
       <c r="D115" t="s">
         <v>493</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="1" t="s">
         <v>615</v>
       </c>
       <c r="F115" t="s">
@@ -18206,7 +18180,7 @@
       <c r="D116" t="s">
         <v>494</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="1" t="s">
         <v>616</v>
       </c>
       <c r="F116" t="s">
@@ -18244,7 +18218,7 @@
       <c r="D117" t="s">
         <v>495</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="1" t="s">
         <v>617</v>
       </c>
       <c r="F117" t="s">
@@ -18282,7 +18256,7 @@
       <c r="D118" t="s">
         <v>496</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="1" t="s">
         <v>618</v>
       </c>
       <c r="F118" t="s">
@@ -18317,7 +18291,7 @@
       <c r="D119" t="s">
         <v>497</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="1" t="s">
         <v>619</v>
       </c>
       <c r="F119" t="s">
@@ -18352,7 +18326,7 @@
       <c r="D120" t="s">
         <v>498</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="1" t="s">
         <v>620</v>
       </c>
       <c r="F120" t="s">
@@ -18390,7 +18364,7 @@
       <c r="D121" t="s">
         <v>499</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="1" t="s">
         <v>621</v>
       </c>
       <c r="F121" t="s">
@@ -18428,7 +18402,7 @@
       <c r="D122" t="s">
         <v>500</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="1" t="s">
         <v>622</v>
       </c>
       <c r="F122" t="s">
@@ -18463,7 +18437,7 @@
       <c r="D123" t="s">
         <v>501</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="1" t="s">
         <v>623</v>
       </c>
       <c r="F123" t="s">
@@ -18626,43 +18600,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>859</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>860</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>861</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>862</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>863</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>864</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>865</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>866</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>867</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>868</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -19248,43 +19222,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>859</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>860</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>861</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>862</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>863</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>864</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>865</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>866</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>867</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>868</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -19384,43 +19358,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>859</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>860</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>861</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>862</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>863</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>864</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>865</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>866</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>867</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>868</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -73927,13 +73901,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>3944</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>3945</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -73944,7 +73918,7 @@
       <c r="B2" t="s">
         <v>4116</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4288</v>
       </c>
     </row>
@@ -73955,7 +73929,7 @@
       <c r="B3" t="s">
         <v>4117</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4289</v>
       </c>
     </row>
@@ -73966,7 +73940,7 @@
       <c r="B4" t="s">
         <v>4118</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4290</v>
       </c>
     </row>
@@ -73977,7 +73951,7 @@
       <c r="B5" t="s">
         <v>4119</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4291</v>
       </c>
     </row>
@@ -73988,7 +73962,7 @@
       <c r="B6" t="s">
         <v>4120</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>4292</v>
       </c>
     </row>
@@ -73999,7 +73973,7 @@
       <c r="B7" t="s">
         <v>4121</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>4293</v>
       </c>
     </row>
@@ -74010,7 +73984,7 @@
       <c r="B8" t="s">
         <v>4122</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>4294</v>
       </c>
     </row>
@@ -74021,7 +73995,7 @@
       <c r="B9" t="s">
         <v>4123</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>4295</v>
       </c>
     </row>
@@ -74032,7 +74006,7 @@
       <c r="B10" t="s">
         <v>4124</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>4296</v>
       </c>
     </row>
@@ -74043,7 +74017,7 @@
       <c r="B11" t="s">
         <v>4125</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>4297</v>
       </c>
     </row>
@@ -74054,7 +74028,7 @@
       <c r="B12" t="s">
         <v>4126</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>4298</v>
       </c>
     </row>
@@ -74065,7 +74039,7 @@
       <c r="B13" t="s">
         <v>4127</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>4299</v>
       </c>
     </row>
@@ -74076,7 +74050,7 @@
       <c r="B14" t="s">
         <v>4128</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>4300</v>
       </c>
     </row>
@@ -74087,7 +74061,7 @@
       <c r="B15" t="s">
         <v>4129</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>4301</v>
       </c>
     </row>
@@ -74098,7 +74072,7 @@
       <c r="B16" t="s">
         <v>4130</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>4302</v>
       </c>
     </row>
@@ -74109,7 +74083,7 @@
       <c r="B17" t="s">
         <v>4131</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>4303</v>
       </c>
     </row>
@@ -74120,7 +74094,7 @@
       <c r="B18" t="s">
         <v>4132</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>4304</v>
       </c>
     </row>
@@ -74131,7 +74105,7 @@
       <c r="B19" t="s">
         <v>4133</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>4305</v>
       </c>
     </row>
@@ -74142,7 +74116,7 @@
       <c r="B20" t="s">
         <v>4134</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>4306</v>
       </c>
     </row>
@@ -74153,7 +74127,7 @@
       <c r="B21" t="s">
         <v>4135</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>4307</v>
       </c>
     </row>
@@ -74164,7 +74138,7 @@
       <c r="B22" t="s">
         <v>4136</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>4308</v>
       </c>
     </row>
@@ -74175,7 +74149,7 @@
       <c r="B23" t="s">
         <v>4137</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>4309</v>
       </c>
     </row>
@@ -74186,7 +74160,7 @@
       <c r="B24" t="s">
         <v>4138</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>4310</v>
       </c>
     </row>
@@ -74197,7 +74171,7 @@
       <c r="B25" t="s">
         <v>4139</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>4311</v>
       </c>
     </row>
@@ -74208,7 +74182,7 @@
       <c r="B26" t="s">
         <v>4140</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>4312</v>
       </c>
     </row>
@@ -74219,7 +74193,7 @@
       <c r="B27" t="s">
         <v>4141</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>4313</v>
       </c>
     </row>
@@ -74230,7 +74204,7 @@
       <c r="B28" t="s">
         <v>4142</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>4314</v>
       </c>
     </row>
@@ -74241,7 +74215,7 @@
       <c r="B29" t="s">
         <v>4143</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>4315</v>
       </c>
     </row>
@@ -74252,7 +74226,7 @@
       <c r="B30" t="s">
         <v>4144</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>4316</v>
       </c>
     </row>
@@ -74263,7 +74237,7 @@
       <c r="B31" t="s">
         <v>4145</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>4317</v>
       </c>
     </row>
@@ -74274,7 +74248,7 @@
       <c r="B32" t="s">
         <v>4146</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>4318</v>
       </c>
     </row>
@@ -74285,7 +74259,7 @@
       <c r="B33" t="s">
         <v>4147</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>4319</v>
       </c>
     </row>
@@ -74296,7 +74270,7 @@
       <c r="B34" t="s">
         <v>4148</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>4320</v>
       </c>
     </row>
@@ -74307,7 +74281,7 @@
       <c r="B35" t="s">
         <v>4149</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>4321</v>
       </c>
     </row>
@@ -74318,7 +74292,7 @@
       <c r="B36" t="s">
         <v>4150</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>4322</v>
       </c>
     </row>
@@ -74329,7 +74303,7 @@
       <c r="B37" t="s">
         <v>4151</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>4323</v>
       </c>
     </row>
@@ -74340,7 +74314,7 @@
       <c r="B38" t="s">
         <v>4152</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>4324</v>
       </c>
     </row>
@@ -74351,7 +74325,7 @@
       <c r="B39" t="s">
         <v>4153</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>4325</v>
       </c>
     </row>
@@ -74362,7 +74336,7 @@
       <c r="B40" t="s">
         <v>4154</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>4326</v>
       </c>
     </row>
@@ -74373,7 +74347,7 @@
       <c r="B41" t="s">
         <v>4155</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>4327</v>
       </c>
     </row>
@@ -74384,7 +74358,7 @@
       <c r="B42" t="s">
         <v>4156</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>4328</v>
       </c>
     </row>
@@ -74395,7 +74369,7 @@
       <c r="B43" t="s">
         <v>4157</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>4329</v>
       </c>
     </row>
@@ -74406,7 +74380,7 @@
       <c r="B44" t="s">
         <v>4158</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>4330</v>
       </c>
     </row>
@@ -74417,7 +74391,7 @@
       <c r="B45" t="s">
         <v>4159</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>4331</v>
       </c>
     </row>
@@ -74428,7 +74402,7 @@
       <c r="B46" t="s">
         <v>4160</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>4332</v>
       </c>
     </row>
@@ -74439,7 +74413,7 @@
       <c r="B47" t="s">
         <v>4161</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>4333</v>
       </c>
     </row>
@@ -74450,7 +74424,7 @@
       <c r="B48" t="s">
         <v>4162</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>4334</v>
       </c>
     </row>
@@ -74461,7 +74435,7 @@
       <c r="B49" t="s">
         <v>4163</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>4335</v>
       </c>
     </row>
@@ -74472,7 +74446,7 @@
       <c r="B50" t="s">
         <v>4164</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>4336</v>
       </c>
     </row>
@@ -74483,7 +74457,7 @@
       <c r="B51" t="s">
         <v>4165</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>4337</v>
       </c>
     </row>
@@ -74494,7 +74468,7 @@
       <c r="B52" t="s">
         <v>4166</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>4338</v>
       </c>
     </row>
@@ -74505,7 +74479,7 @@
       <c r="B53" t="s">
         <v>4167</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>4339</v>
       </c>
     </row>
@@ -74516,7 +74490,7 @@
       <c r="B54" t="s">
         <v>4168</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>4340</v>
       </c>
     </row>
@@ -74527,7 +74501,7 @@
       <c r="B55" t="s">
         <v>4169</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>4341</v>
       </c>
     </row>
@@ -74538,7 +74512,7 @@
       <c r="B56" t="s">
         <v>4170</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>4342</v>
       </c>
     </row>
@@ -74549,7 +74523,7 @@
       <c r="B57" t="s">
         <v>4171</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>4343</v>
       </c>
     </row>
@@ -74560,7 +74534,7 @@
       <c r="B58" t="s">
         <v>4172</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>4344</v>
       </c>
     </row>
@@ -74571,7 +74545,7 @@
       <c r="B59" t="s">
         <v>4173</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>4345</v>
       </c>
     </row>
@@ -74582,7 +74556,7 @@
       <c r="B60" t="s">
         <v>4174</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>4346</v>
       </c>
     </row>
@@ -74593,7 +74567,7 @@
       <c r="B61" t="s">
         <v>4175</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>4347</v>
       </c>
     </row>
@@ -74604,7 +74578,7 @@
       <c r="B62" t="s">
         <v>4176</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>4348</v>
       </c>
     </row>
@@ -74615,7 +74589,7 @@
       <c r="B63" t="s">
         <v>4177</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>4349</v>
       </c>
     </row>
@@ -74626,7 +74600,7 @@
       <c r="B64" t="s">
         <v>4178</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>4350</v>
       </c>
     </row>
@@ -74637,7 +74611,7 @@
       <c r="B65" t="s">
         <v>4179</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>4351</v>
       </c>
     </row>
@@ -74648,7 +74622,7 @@
       <c r="B66" t="s">
         <v>4180</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>4352</v>
       </c>
     </row>
@@ -74659,7 +74633,7 @@
       <c r="B67" t="s">
         <v>4181</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>4353</v>
       </c>
     </row>
@@ -74670,7 +74644,7 @@
       <c r="B68" t="s">
         <v>4182</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>4354</v>
       </c>
     </row>
@@ -74681,7 +74655,7 @@
       <c r="B69" t="s">
         <v>4183</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>4355</v>
       </c>
     </row>
@@ -74692,7 +74666,7 @@
       <c r="B70" t="s">
         <v>4184</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>4356</v>
       </c>
     </row>
@@ -74703,7 +74677,7 @@
       <c r="B71" t="s">
         <v>4185</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>4357</v>
       </c>
     </row>
@@ -74714,7 +74688,7 @@
       <c r="B72" t="s">
         <v>4186</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>4358</v>
       </c>
     </row>
@@ -74725,7 +74699,7 @@
       <c r="B73" t="s">
         <v>4187</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>4359</v>
       </c>
     </row>
@@ -74736,7 +74710,7 @@
       <c r="B74" t="s">
         <v>4188</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>4360</v>
       </c>
     </row>
@@ -74747,7 +74721,7 @@
       <c r="B75" t="s">
         <v>4189</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>4361</v>
       </c>
     </row>
@@ -74758,7 +74732,7 @@
       <c r="B76" t="s">
         <v>4190</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>4362</v>
       </c>
     </row>
@@ -74769,7 +74743,7 @@
       <c r="B77" t="s">
         <v>4191</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>4363</v>
       </c>
     </row>
@@ -74780,7 +74754,7 @@
       <c r="B78" t="s">
         <v>4192</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>4364</v>
       </c>
     </row>
@@ -74791,7 +74765,7 @@
       <c r="B79" t="s">
         <v>4193</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>4365</v>
       </c>
     </row>
@@ -74802,7 +74776,7 @@
       <c r="B80" t="s">
         <v>4194</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>4366</v>
       </c>
     </row>
@@ -74813,7 +74787,7 @@
       <c r="B81" t="s">
         <v>4195</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>4367</v>
       </c>
     </row>
@@ -74824,7 +74798,7 @@
       <c r="B82" t="s">
         <v>4196</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>4368</v>
       </c>
     </row>
@@ -74835,7 +74809,7 @@
       <c r="B83" t="s">
         <v>4197</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>4369</v>
       </c>
     </row>
@@ -74846,7 +74820,7 @@
       <c r="B84" t="s">
         <v>4198</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>4370</v>
       </c>
     </row>
@@ -74857,7 +74831,7 @@
       <c r="B85" t="s">
         <v>4199</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>4371</v>
       </c>
     </row>
@@ -74868,7 +74842,7 @@
       <c r="B86" t="s">
         <v>4200</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>4372</v>
       </c>
     </row>
@@ -74879,7 +74853,7 @@
       <c r="B87" t="s">
         <v>4201</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>4373</v>
       </c>
     </row>
@@ -74890,7 +74864,7 @@
       <c r="B88" t="s">
         <v>4202</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>4374</v>
       </c>
     </row>
@@ -74901,7 +74875,7 @@
       <c r="B89" t="s">
         <v>4203</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>4375</v>
       </c>
     </row>
@@ -74912,7 +74886,7 @@
       <c r="B90" t="s">
         <v>4204</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>4376</v>
       </c>
     </row>
@@ -74923,7 +74897,7 @@
       <c r="B91" t="s">
         <v>4205</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>4377</v>
       </c>
     </row>
@@ -74934,7 +74908,7 @@
       <c r="B92" t="s">
         <v>4206</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>4378</v>
       </c>
     </row>
@@ -74945,7 +74919,7 @@
       <c r="B93" t="s">
         <v>4207</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>4379</v>
       </c>
     </row>
@@ -74956,7 +74930,7 @@
       <c r="B94" t="s">
         <v>4208</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>4380</v>
       </c>
     </row>
@@ -74967,7 +74941,7 @@
       <c r="B95" t="s">
         <v>4209</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>4381</v>
       </c>
     </row>
@@ -74978,7 +74952,7 @@
       <c r="B96" t="s">
         <v>4210</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>4382</v>
       </c>
     </row>
@@ -74989,7 +74963,7 @@
       <c r="B97" t="s">
         <v>4211</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>4383</v>
       </c>
     </row>
@@ -75000,7 +74974,7 @@
       <c r="B98" t="s">
         <v>4212</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>4384</v>
       </c>
     </row>
@@ -75011,7 +74985,7 @@
       <c r="B99" t="s">
         <v>4213</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>4385</v>
       </c>
     </row>
@@ -75022,7 +74996,7 @@
       <c r="B100" t="s">
         <v>4214</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>4386</v>
       </c>
     </row>
@@ -75033,7 +75007,7 @@
       <c r="B101" t="s">
         <v>4215</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>4387</v>
       </c>
     </row>
@@ -75044,7 +75018,7 @@
       <c r="B102" t="s">
         <v>4216</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>4388</v>
       </c>
     </row>
@@ -75055,7 +75029,7 @@
       <c r="B103" t="s">
         <v>4217</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>4389</v>
       </c>
     </row>
@@ -75066,7 +75040,7 @@
       <c r="B104" t="s">
         <v>4218</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>4390</v>
       </c>
     </row>
@@ -75077,7 +75051,7 @@
       <c r="B105" t="s">
         <v>4219</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>4391</v>
       </c>
     </row>
@@ -75088,7 +75062,7 @@
       <c r="B106" t="s">
         <v>4220</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>4392</v>
       </c>
     </row>
@@ -75099,7 +75073,7 @@
       <c r="B107" t="s">
         <v>4221</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>4393</v>
       </c>
     </row>
@@ -75110,7 +75084,7 @@
       <c r="B108" t="s">
         <v>4222</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>4394</v>
       </c>
     </row>
@@ -75121,7 +75095,7 @@
       <c r="B109" t="s">
         <v>4223</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>4395</v>
       </c>
     </row>
@@ -75132,7 +75106,7 @@
       <c r="B110" t="s">
         <v>4224</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>4396</v>
       </c>
     </row>
@@ -75143,7 +75117,7 @@
       <c r="B111" t="s">
         <v>4225</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>4397</v>
       </c>
     </row>
@@ -75154,7 +75128,7 @@
       <c r="B112" t="s">
         <v>4226</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>4398</v>
       </c>
     </row>
@@ -75165,7 +75139,7 @@
       <c r="B113" t="s">
         <v>4227</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>4399</v>
       </c>
     </row>
@@ -75176,7 +75150,7 @@
       <c r="B114" t="s">
         <v>4228</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>4400</v>
       </c>
     </row>
@@ -75187,7 +75161,7 @@
       <c r="B115" t="s">
         <v>4229</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>4401</v>
       </c>
     </row>
@@ -75198,7 +75172,7 @@
       <c r="B116" t="s">
         <v>4230</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>4402</v>
       </c>
     </row>
@@ -75209,7 +75183,7 @@
       <c r="B117" t="s">
         <v>4231</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>4403</v>
       </c>
     </row>
@@ -75220,7 +75194,7 @@
       <c r="B118" t="s">
         <v>4232</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>4404</v>
       </c>
     </row>
@@ -75231,7 +75205,7 @@
       <c r="B119" t="s">
         <v>4233</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>4405</v>
       </c>
     </row>
@@ -75242,7 +75216,7 @@
       <c r="B120" t="s">
         <v>4234</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>4406</v>
       </c>
     </row>
@@ -75253,7 +75227,7 @@
       <c r="B121" t="s">
         <v>4235</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>4407</v>
       </c>
     </row>
@@ -75264,7 +75238,7 @@
       <c r="B122" t="s">
         <v>4236</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>4408</v>
       </c>
     </row>
@@ -75275,7 +75249,7 @@
       <c r="B123" t="s">
         <v>4237</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>4409</v>
       </c>
     </row>
@@ -75286,7 +75260,7 @@
       <c r="B124" t="s">
         <v>4238</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>4410</v>
       </c>
     </row>
@@ -75297,7 +75271,7 @@
       <c r="B125" t="s">
         <v>4239</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>4411</v>
       </c>
     </row>
@@ -75308,7 +75282,7 @@
       <c r="B126" t="s">
         <v>4240</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>4412</v>
       </c>
     </row>
@@ -75319,7 +75293,7 @@
       <c r="B127" t="s">
         <v>4241</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>4413</v>
       </c>
     </row>
@@ -75330,7 +75304,7 @@
       <c r="B128" t="s">
         <v>4242</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>4414</v>
       </c>
     </row>
@@ -75341,7 +75315,7 @@
       <c r="B129" t="s">
         <v>4243</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>4415</v>
       </c>
     </row>
@@ -75352,7 +75326,7 @@
       <c r="B130" t="s">
         <v>4244</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>4416</v>
       </c>
     </row>
@@ -75363,7 +75337,7 @@
       <c r="B131" t="s">
         <v>4245</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>4417</v>
       </c>
     </row>
@@ -75374,7 +75348,7 @@
       <c r="B132" t="s">
         <v>4246</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>4418</v>
       </c>
     </row>
@@ -75385,7 +75359,7 @@
       <c r="B133" t="s">
         <v>4247</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>4419</v>
       </c>
     </row>
@@ -75396,7 +75370,7 @@
       <c r="B134" t="s">
         <v>4248</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>4420</v>
       </c>
     </row>
@@ -75407,7 +75381,7 @@
       <c r="B135" t="s">
         <v>4249</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>4421</v>
       </c>
     </row>
@@ -75418,7 +75392,7 @@
       <c r="B136" t="s">
         <v>4250</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>4422</v>
       </c>
     </row>
@@ -75429,7 +75403,7 @@
       <c r="B137" t="s">
         <v>4251</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>4423</v>
       </c>
     </row>
@@ -75440,7 +75414,7 @@
       <c r="B138" t="s">
         <v>4252</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>4424</v>
       </c>
     </row>
@@ -75451,7 +75425,7 @@
       <c r="B139" t="s">
         <v>4253</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>4425</v>
       </c>
     </row>
@@ -75462,7 +75436,7 @@
       <c r="B140" t="s">
         <v>4254</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>4426</v>
       </c>
     </row>
@@ -75473,7 +75447,7 @@
       <c r="B141" t="s">
         <v>4255</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>4427</v>
       </c>
     </row>
@@ -75484,7 +75458,7 @@
       <c r="B142" t="s">
         <v>4256</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>4428</v>
       </c>
     </row>
@@ -75495,7 +75469,7 @@
       <c r="B143" t="s">
         <v>4257</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>4429</v>
       </c>
     </row>
@@ -75506,7 +75480,7 @@
       <c r="B144" t="s">
         <v>4258</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>4430</v>
       </c>
     </row>
@@ -75517,7 +75491,7 @@
       <c r="B145" t="s">
         <v>4259</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>4431</v>
       </c>
     </row>
@@ -75528,7 +75502,7 @@
       <c r="B146" t="s">
         <v>4260</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>4432</v>
       </c>
     </row>
@@ -75539,7 +75513,7 @@
       <c r="B147" t="s">
         <v>4261</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>4433</v>
       </c>
     </row>
@@ -75550,7 +75524,7 @@
       <c r="B148" t="s">
         <v>4262</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>4434</v>
       </c>
     </row>
@@ -75561,7 +75535,7 @@
       <c r="B149" t="s">
         <v>4263</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>4435</v>
       </c>
     </row>
@@ -75572,7 +75546,7 @@
       <c r="B150" t="s">
         <v>4264</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>4436</v>
       </c>
     </row>
@@ -75583,7 +75557,7 @@
       <c r="B151" t="s">
         <v>4265</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>4437</v>
       </c>
     </row>
@@ -75594,7 +75568,7 @@
       <c r="B152" t="s">
         <v>4266</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>4438</v>
       </c>
     </row>
@@ -75605,7 +75579,7 @@
       <c r="B153" t="s">
         <v>4267</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>4439</v>
       </c>
     </row>
@@ -75616,7 +75590,7 @@
       <c r="B154" t="s">
         <v>4268</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>4440</v>
       </c>
     </row>
@@ -75627,7 +75601,7 @@
       <c r="B155" t="s">
         <v>4269</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>4441</v>
       </c>
     </row>
@@ -75638,7 +75612,7 @@
       <c r="B156" t="s">
         <v>4270</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>4442</v>
       </c>
     </row>
@@ -75649,7 +75623,7 @@
       <c r="B157" t="s">
         <v>4145</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>4317</v>
       </c>
     </row>
@@ -75660,7 +75634,7 @@
       <c r="B158" t="s">
         <v>4133</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>4305</v>
       </c>
     </row>
@@ -75671,7 +75645,7 @@
       <c r="B159" t="s">
         <v>4271</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>4443</v>
       </c>
     </row>
@@ -75682,7 +75656,7 @@
       <c r="B160" t="s">
         <v>4188</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>4360</v>
       </c>
     </row>
@@ -75693,7 +75667,7 @@
       <c r="B161" t="s">
         <v>4165</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>4337</v>
       </c>
     </row>
@@ -75704,7 +75678,7 @@
       <c r="B162" t="s">
         <v>4211</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>4383</v>
       </c>
     </row>
@@ -75715,7 +75689,7 @@
       <c r="B163" t="s">
         <v>4192</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>4364</v>
       </c>
     </row>
@@ -75726,7 +75700,7 @@
       <c r="B164" t="s">
         <v>4242</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>4414</v>
       </c>
     </row>
@@ -75737,7 +75711,7 @@
       <c r="B165" t="s">
         <v>4262</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>4434</v>
       </c>
     </row>
@@ -75748,7 +75722,7 @@
       <c r="B166" t="s">
         <v>4176</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>4348</v>
       </c>
     </row>
@@ -75759,7 +75733,7 @@
       <c r="B167" t="s">
         <v>4152</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>4324</v>
       </c>
     </row>
@@ -75770,7 +75744,7 @@
       <c r="B168" t="s">
         <v>4245</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>4417</v>
       </c>
     </row>
@@ -75781,7 +75755,7 @@
       <c r="B169" t="s">
         <v>4146</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>4318</v>
       </c>
     </row>
@@ -75792,7 +75766,7 @@
       <c r="B170" t="s">
         <v>4199</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>4371</v>
       </c>
     </row>
@@ -75803,7 +75777,7 @@
       <c r="B171" t="s">
         <v>4257</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>4429</v>
       </c>
     </row>
@@ -75814,7 +75788,7 @@
       <c r="B172" t="s">
         <v>4128</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>4300</v>
       </c>
     </row>
@@ -75825,7 +75799,7 @@
       <c r="B173" t="s">
         <v>4153</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>4325</v>
       </c>
     </row>
@@ -75844,7 +75818,7 @@
       <c r="B175" t="s">
         <v>4150</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="1" t="s">
         <v>4322</v>
       </c>
     </row>
@@ -75855,7 +75829,7 @@
       <c r="B176" t="s">
         <v>4273</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>4444</v>
       </c>
     </row>
@@ -75866,7 +75840,7 @@
       <c r="B177" t="s">
         <v>4274</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>4445</v>
       </c>
     </row>
@@ -75877,7 +75851,7 @@
       <c r="B178" t="s">
         <v>4241</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>4413</v>
       </c>
     </row>
@@ -75888,7 +75862,7 @@
       <c r="B179" t="s">
         <v>4202</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>4374</v>
       </c>
     </row>
@@ -75899,7 +75873,7 @@
       <c r="B180" t="s">
         <v>4230</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>4402</v>
       </c>
     </row>
@@ -75910,7 +75884,7 @@
       <c r="B181" t="s">
         <v>4198</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>4370</v>
       </c>
     </row>
@@ -75921,7 +75895,7 @@
       <c r="B182" t="s">
         <v>4148</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>4320</v>
       </c>
     </row>
@@ -75932,7 +75906,7 @@
       <c r="B183" t="s">
         <v>4173</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>4345</v>
       </c>
     </row>
@@ -75943,7 +75917,7 @@
       <c r="B184" t="s">
         <v>4269</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>4441</v>
       </c>
     </row>
@@ -75954,7 +75928,7 @@
       <c r="B185" t="s">
         <v>4227</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="1" t="s">
         <v>4399</v>
       </c>
     </row>
@@ -75965,7 +75939,7 @@
       <c r="B186" t="s">
         <v>4226</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>4398</v>
       </c>
     </row>
@@ -75976,7 +75950,7 @@
       <c r="B187" t="s">
         <v>4157</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="1" t="s">
         <v>4329</v>
       </c>
     </row>
@@ -75987,7 +75961,7 @@
       <c r="B188" t="s">
         <v>4255</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="1" t="s">
         <v>4427</v>
       </c>
     </row>
@@ -75998,7 +75972,7 @@
       <c r="B189" t="s">
         <v>4250</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="1" t="s">
         <v>4422</v>
       </c>
     </row>
@@ -76009,7 +75983,7 @@
       <c r="B190" t="s">
         <v>4214</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="1" t="s">
         <v>4386</v>
       </c>
     </row>
@@ -76020,7 +75994,7 @@
       <c r="B191" t="s">
         <v>4193</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>4365</v>
       </c>
     </row>
@@ -76031,7 +76005,7 @@
       <c r="B192" t="s">
         <v>4170</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>4342</v>
       </c>
     </row>
@@ -76042,7 +76016,7 @@
       <c r="B193" t="s">
         <v>4275</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="1" t="s">
         <v>4446</v>
       </c>
     </row>
@@ -76053,7 +76027,7 @@
       <c r="B194" t="s">
         <v>4187</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="1" t="s">
         <v>4359</v>
       </c>
     </row>
@@ -76064,7 +76038,7 @@
       <c r="B195" t="s">
         <v>4163</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="1" t="s">
         <v>4335</v>
       </c>
     </row>
@@ -76075,7 +76049,7 @@
       <c r="B196" t="s">
         <v>4276</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1" t="s">
         <v>4447</v>
       </c>
     </row>
@@ -76086,7 +76060,7 @@
       <c r="B197" t="s">
         <v>4277</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="1" t="s">
         <v>4448</v>
       </c>
     </row>
@@ -76097,7 +76071,7 @@
       <c r="B198" t="s">
         <v>4278</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="1" t="s">
         <v>4449</v>
       </c>
     </row>
@@ -76108,7 +76082,7 @@
       <c r="B199" t="s">
         <v>4174</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="1" t="s">
         <v>4346</v>
       </c>
     </row>
@@ -76119,7 +76093,7 @@
       <c r="B200" t="s">
         <v>4225</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="1" t="s">
         <v>4397</v>
       </c>
     </row>
@@ -76130,7 +76104,7 @@
       <c r="B201" t="s">
         <v>4220</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="1" t="s">
         <v>4392</v>
       </c>
     </row>
@@ -76141,7 +76115,7 @@
       <c r="B202" t="s">
         <v>4158</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="1" t="s">
         <v>4330</v>
       </c>
     </row>
@@ -76152,7 +76126,7 @@
       <c r="B203" t="s">
         <v>4234</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="1" t="s">
         <v>4406</v>
       </c>
     </row>
@@ -76163,7 +76137,7 @@
       <c r="B204" t="s">
         <v>4235</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="1" t="s">
         <v>4407</v>
       </c>
     </row>
@@ -76174,7 +76148,7 @@
       <c r="B205" t="s">
         <v>4228</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="1" t="s">
         <v>4400</v>
       </c>
     </row>
@@ -76185,7 +76159,7 @@
       <c r="B206" t="s">
         <v>4139</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="1" t="s">
         <v>4311</v>
       </c>
     </row>
@@ -76196,7 +76170,7 @@
       <c r="B207" t="s">
         <v>4254</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="1" t="s">
         <v>4426</v>
       </c>
     </row>
@@ -76207,7 +76181,7 @@
       <c r="B208" t="s">
         <v>4248</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="1" t="s">
         <v>4420</v>
       </c>
     </row>
@@ -76218,7 +76192,7 @@
       <c r="B209" t="s">
         <v>4266</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="1" t="s">
         <v>4438</v>
       </c>
     </row>
@@ -76229,7 +76203,7 @@
       <c r="B210" t="s">
         <v>4221</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="1" t="s">
         <v>4393</v>
       </c>
     </row>
@@ -76240,7 +76214,7 @@
       <c r="B211" t="s">
         <v>4185</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="1" t="s">
         <v>4357</v>
       </c>
     </row>
@@ -76251,7 +76225,7 @@
       <c r="B212" t="s">
         <v>4120</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="1" t="s">
         <v>4292</v>
       </c>
     </row>
@@ -76262,7 +76236,7 @@
       <c r="B213" t="s">
         <v>4181</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="1" t="s">
         <v>4353</v>
       </c>
     </row>
@@ -76273,7 +76247,7 @@
       <c r="B214" t="s">
         <v>4132</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="1" t="s">
         <v>4304</v>
       </c>
     </row>
@@ -76284,7 +76258,7 @@
       <c r="B215" t="s">
         <v>4138</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="1" t="s">
         <v>4310</v>
       </c>
     </row>
@@ -76295,7 +76269,7 @@
       <c r="B216" t="s">
         <v>4247</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="1" t="s">
         <v>4419</v>
       </c>
     </row>
@@ -76306,7 +76280,7 @@
       <c r="B217" t="s">
         <v>4258</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="1" t="s">
         <v>4430</v>
       </c>
     </row>
@@ -76317,7 +76291,7 @@
       <c r="B218" t="s">
         <v>4263</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="1" t="s">
         <v>4435</v>
       </c>
     </row>
@@ -76328,7 +76302,7 @@
       <c r="B219" t="s">
         <v>4179</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="1" t="s">
         <v>4351</v>
       </c>
     </row>
@@ -76339,7 +76313,7 @@
       <c r="B220" t="s">
         <v>4229</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="1" t="s">
         <v>4401</v>
       </c>
     </row>
@@ -76350,7 +76324,7 @@
       <c r="B221" t="s">
         <v>4213</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="1" t="s">
         <v>4385</v>
       </c>
     </row>
@@ -76361,7 +76335,7 @@
       <c r="B222" t="s">
         <v>4117</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="1" t="s">
         <v>4289</v>
       </c>
     </row>
@@ -76372,7 +76346,7 @@
       <c r="B223" t="s">
         <v>4167</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="1" t="s">
         <v>4339</v>
       </c>
     </row>
@@ -76383,7 +76357,7 @@
       <c r="B224" t="s">
         <v>4249</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="1" t="s">
         <v>4421</v>
       </c>
     </row>
@@ -76394,7 +76368,7 @@
       <c r="B225" t="s">
         <v>4172</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="1" t="s">
         <v>4344</v>
       </c>
     </row>
@@ -76405,7 +76379,7 @@
       <c r="B226" t="s">
         <v>4238</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="1" t="s">
         <v>4410</v>
       </c>
     </row>
@@ -76416,7 +76390,7 @@
       <c r="B227" t="s">
         <v>4177</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="1" t="s">
         <v>4349</v>
       </c>
     </row>
@@ -76427,7 +76401,7 @@
       <c r="B228" t="s">
         <v>4206</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="1" t="s">
         <v>4378</v>
       </c>
     </row>
@@ -76438,7 +76412,7 @@
       <c r="B229" t="s">
         <v>4196</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="1" t="s">
         <v>4368</v>
       </c>
     </row>
@@ -76449,7 +76423,7 @@
       <c r="B230" t="s">
         <v>4119</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="1" t="s">
         <v>4291</v>
       </c>
     </row>
@@ -76460,7 +76434,7 @@
       <c r="B231" t="s">
         <v>4219</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="1" t="s">
         <v>4391</v>
       </c>
     </row>
@@ -76471,7 +76445,7 @@
       <c r="B232" t="s">
         <v>4135</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="1" t="s">
         <v>4307</v>
       </c>
     </row>
@@ -76482,7 +76456,7 @@
       <c r="B233" t="s">
         <v>4186</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="1" t="s">
         <v>4358</v>
       </c>
     </row>
@@ -76493,7 +76467,7 @@
       <c r="B234" t="s">
         <v>4141</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="1" t="s">
         <v>4313</v>
       </c>
     </row>
@@ -76504,7 +76478,7 @@
       <c r="B235" t="s">
         <v>4175</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="1" t="s">
         <v>4347</v>
       </c>
     </row>
@@ -76515,7 +76489,7 @@
       <c r="B236" t="s">
         <v>4279</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="1" t="s">
         <v>4450</v>
       </c>
     </row>
@@ -76526,7 +76500,7 @@
       <c r="B237" t="s">
         <v>4270</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="1" t="s">
         <v>4442</v>
       </c>
     </row>
@@ -76537,7 +76511,7 @@
       <c r="B238" t="s">
         <v>4164</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="1" t="s">
         <v>4336</v>
       </c>
     </row>
@@ -76548,7 +76522,7 @@
       <c r="B239" t="s">
         <v>4182</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="1" t="s">
         <v>4354</v>
       </c>
     </row>
@@ -76559,7 +76533,7 @@
       <c r="B240" t="s">
         <v>4259</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="1" t="s">
         <v>4431</v>
       </c>
     </row>
@@ -76570,7 +76544,7 @@
       <c r="B241" t="s">
         <v>4231</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="1" t="s">
         <v>4403</v>
       </c>
     </row>
@@ -76581,7 +76555,7 @@
       <c r="B242" t="s">
         <v>4122</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="1" t="s">
         <v>4294</v>
       </c>
     </row>
@@ -76592,7 +76566,7 @@
       <c r="B243" t="s">
         <v>4260</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="1" t="s">
         <v>4432</v>
       </c>
     </row>
@@ -76603,7 +76577,7 @@
       <c r="B244" t="s">
         <v>4256</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="1" t="s">
         <v>4428</v>
       </c>
     </row>
@@ -76614,7 +76588,7 @@
       <c r="B245" t="s">
         <v>4131</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="1" t="s">
         <v>4303</v>
       </c>
     </row>
@@ -76625,7 +76599,7 @@
       <c r="B246" t="s">
         <v>4280</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="1" t="s">
         <v>4451</v>
       </c>
     </row>
@@ -76636,7 +76610,7 @@
       <c r="B247" t="s">
         <v>4171</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="1" t="s">
         <v>4343</v>
       </c>
     </row>
@@ -76647,7 +76621,7 @@
       <c r="B248" t="s">
         <v>4281</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="1" t="s">
         <v>4452</v>
       </c>
     </row>
@@ -76658,7 +76632,7 @@
       <c r="B249" t="s">
         <v>4282</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="1" t="s">
         <v>4453</v>
       </c>
     </row>
@@ -76669,7 +76643,7 @@
       <c r="B250" t="s">
         <v>4283</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="1" t="s">
         <v>4454</v>
       </c>
     </row>
@@ -76680,7 +76654,7 @@
       <c r="B251" t="s">
         <v>4284</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="1" t="s">
         <v>4455</v>
       </c>
     </row>
@@ -76691,7 +76665,7 @@
       <c r="B252" t="s">
         <v>4285</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="1" t="s">
         <v>4456</v>
       </c>
     </row>
@@ -76702,7 +76676,7 @@
       <c r="B253" t="s">
         <v>4286</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="1" t="s">
         <v>4457</v>
       </c>
     </row>
@@ -76713,7 +76687,7 @@
       <c r="B254" t="s">
         <v>4124</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="1" t="s">
         <v>4296</v>
       </c>
     </row>
@@ -76724,7 +76698,7 @@
       <c r="B255" t="s">
         <v>4201</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="1" t="s">
         <v>4373</v>
       </c>
     </row>
@@ -76735,7 +76709,7 @@
       <c r="B256" t="s">
         <v>4208</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="1" t="s">
         <v>4380</v>
       </c>
     </row>
@@ -76746,7 +76720,7 @@
       <c r="B257" t="s">
         <v>4134</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="1" t="s">
         <v>4306</v>
       </c>
     </row>
@@ -76757,7 +76731,7 @@
       <c r="B258" t="s">
         <v>4184</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="1" t="s">
         <v>4356</v>
       </c>
     </row>
@@ -76768,7 +76742,7 @@
       <c r="B259" t="s">
         <v>4200</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="1" t="s">
         <v>4372</v>
       </c>
     </row>
@@ -76779,7 +76753,7 @@
       <c r="B260" t="s">
         <v>4180</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="1" t="s">
         <v>4352</v>
       </c>
     </row>
@@ -76790,7 +76764,7 @@
       <c r="B261" t="s">
         <v>4239</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="1" t="s">
         <v>4411</v>
       </c>
     </row>
@@ -76801,7 +76775,7 @@
       <c r="B262" t="s">
         <v>4154</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="1" t="s">
         <v>4326</v>
       </c>
     </row>
@@ -76812,7 +76786,7 @@
       <c r="B263" t="s">
         <v>4218</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="1" t="s">
         <v>4390</v>
       </c>
     </row>
@@ -76823,7 +76797,7 @@
       <c r="B264" t="s">
         <v>4162</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="1" t="s">
         <v>4334</v>
       </c>
     </row>
@@ -76834,7 +76808,7 @@
       <c r="B265" t="s">
         <v>4129</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="1" t="s">
         <v>4301</v>
       </c>
     </row>
@@ -76845,7 +76819,7 @@
       <c r="B266" t="s">
         <v>4240</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="1" t="s">
         <v>4412</v>
       </c>
     </row>
@@ -76856,7 +76830,7 @@
       <c r="B267" t="s">
         <v>4168</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="1" t="s">
         <v>4340</v>
       </c>
     </row>
@@ -76867,7 +76841,7 @@
       <c r="B268" t="s">
         <v>4116</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="1" t="s">
         <v>4288</v>
       </c>
     </row>
@@ -76878,7 +76852,7 @@
       <c r="B269" t="s">
         <v>4212</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="1" t="s">
         <v>4384</v>
       </c>
     </row>
@@ -76889,7 +76863,7 @@
       <c r="B270" t="s">
         <v>4224</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="1" t="s">
         <v>4396</v>
       </c>
     </row>
@@ -76900,7 +76874,7 @@
       <c r="B271" t="s">
         <v>4191</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="1" t="s">
         <v>4363</v>
       </c>
     </row>
@@ -76911,7 +76885,7 @@
       <c r="B272" t="s">
         <v>4159</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="1" t="s">
         <v>4331</v>
       </c>
     </row>
@@ -76922,7 +76896,7 @@
       <c r="B273" t="s">
         <v>4127</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="1" t="s">
         <v>4299</v>
       </c>
     </row>
@@ -76933,7 +76907,7 @@
       <c r="B274" t="s">
         <v>4251</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="1" t="s">
         <v>4423</v>
       </c>
     </row>
@@ -76944,7 +76918,7 @@
       <c r="B275" t="s">
         <v>4190</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="1" t="s">
         <v>4362</v>
       </c>
     </row>
@@ -76955,7 +76929,7 @@
       <c r="B276" t="s">
         <v>4189</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="1" t="s">
         <v>4361</v>
       </c>
     </row>
@@ -76966,7 +76940,7 @@
       <c r="B277" t="s">
         <v>4210</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="1" t="s">
         <v>4382</v>
       </c>
     </row>
@@ -76977,7 +76951,7 @@
       <c r="B278" t="s">
         <v>4197</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="1" t="s">
         <v>4369</v>
       </c>
     </row>
@@ -76988,7 +76962,7 @@
       <c r="B279" t="s">
         <v>4287</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="1" t="s">
         <v>4458</v>
       </c>
     </row>
@@ -76999,7 +76973,7 @@
       <c r="B280" t="s">
         <v>4169</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="1" t="s">
         <v>4341</v>
       </c>
     </row>
@@ -77010,7 +76984,7 @@
       <c r="B281" t="s">
         <v>4233</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="1" t="s">
         <v>4405</v>
       </c>
     </row>
@@ -77021,7 +76995,7 @@
       <c r="B282" t="s">
         <v>4121</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="1" t="s">
         <v>4293</v>
       </c>
     </row>
@@ -77032,7 +77006,7 @@
       <c r="B283" t="s">
         <v>4178</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="1" t="s">
         <v>4350</v>
       </c>
     </row>
@@ -77043,7 +77017,7 @@
       <c r="B284" t="s">
         <v>4156</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="1" t="s">
         <v>4328</v>
       </c>
     </row>
@@ -77054,7 +77028,7 @@
       <c r="B285" t="s">
         <v>4207</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="1" t="s">
         <v>4379</v>
       </c>
     </row>
@@ -77065,7 +77039,7 @@
       <c r="B286" t="s">
         <v>4261</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="1" t="s">
         <v>4433</v>
       </c>
     </row>
@@ -77076,7 +77050,7 @@
       <c r="B287" t="s">
         <v>4140</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="1" t="s">
         <v>4312</v>
       </c>
     </row>
@@ -77087,7 +77061,7 @@
       <c r="B288" t="s">
         <v>4243</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="1" t="s">
         <v>4415</v>
       </c>
     </row>
@@ -77098,7 +77072,7 @@
       <c r="B289" t="s">
         <v>4166</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="1" t="s">
         <v>4338</v>
       </c>
     </row>
@@ -77109,7 +77083,7 @@
       <c r="B290" t="s">
         <v>4183</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="1" t="s">
         <v>4355</v>
       </c>
     </row>
@@ -77120,7 +77094,7 @@
       <c r="B291" t="s">
         <v>4118</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="1" t="s">
         <v>4290</v>
       </c>
     </row>
@@ -77131,7 +77105,7 @@
       <c r="B292" t="s">
         <v>4126</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="1" t="s">
         <v>4298</v>
       </c>
     </row>
@@ -77142,7 +77116,7 @@
       <c r="B293" t="s">
         <v>4232</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="1" t="s">
         <v>4404</v>
       </c>
     </row>
@@ -77153,7 +77127,7 @@
       <c r="B294" t="s">
         <v>4252</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="1" t="s">
         <v>4424</v>
       </c>
     </row>
@@ -77164,7 +77138,7 @@
       <c r="B295" t="s">
         <v>4264</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="1" t="s">
         <v>4436</v>
       </c>
     </row>
@@ -77175,7 +77149,7 @@
       <c r="B296" t="s">
         <v>4268</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="1" t="s">
         <v>4440</v>
       </c>
     </row>
@@ -77186,7 +77160,7 @@
       <c r="B297" t="s">
         <v>4223</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="1" t="s">
         <v>4395</v>
       </c>
     </row>
@@ -77197,7 +77171,7 @@
       <c r="B298" t="s">
         <v>4209</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="1" t="s">
         <v>4381</v>
       </c>
     </row>
